--- a/data/input/absenteeism_data_48.xlsx
+++ b/data/input/absenteeism_data_48.xlsx
@@ -476,69 +476,69 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>51362</v>
+        <v>71852</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dr. Vitor Farias</t>
+          <t>Isabel Rezende</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45101</v>
+        <v>45079</v>
       </c>
       <c r="G2" t="n">
-        <v>4293.74</v>
+        <v>11046.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>74502</v>
+        <v>49450</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fernanda Viana</t>
+          <t>Danilo Lopes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45090</v>
+        <v>45093</v>
       </c>
       <c r="G3" t="n">
-        <v>5794.9</v>
+        <v>6371.67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>73531</v>
+        <v>57853</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ana Julia da Rocha</t>
+          <t>Ana Vitória Gomes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,55 +548,55 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45094</v>
+        <v>45087</v>
       </c>
       <c r="G4" t="n">
-        <v>5762.45</v>
+        <v>6117.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>63494</v>
+        <v>3828</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sra. Catarina Gomes</t>
+          <t>Sr. Pedro Henrique Dias</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45096</v>
+        <v>45085</v>
       </c>
       <c r="G5" t="n">
-        <v>6494.57</v>
+        <v>4462.14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>92361</v>
+        <v>7838</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Henrique da Mota</t>
+          <t>Gabrielly da Costa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,31 +606,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45079</v>
+        <v>45095</v>
       </c>
       <c r="G6" t="n">
-        <v>4241.73</v>
+        <v>7219.61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5178</v>
+        <v>83218</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Augusto Rodrigues</t>
+          <t>Dr. Antônio Porto</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,22 +639,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45082</v>
+        <v>45089</v>
       </c>
       <c r="G7" t="n">
-        <v>7567.43</v>
+        <v>4130.48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>32193</v>
+        <v>96126</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bruno Carvalho</t>
+          <t>Sr. Calebe Oliveira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,104 +664,104 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45085</v>
+        <v>45082</v>
       </c>
       <c r="G8" t="n">
-        <v>9614.559999999999</v>
+        <v>5111.91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>62633</v>
+        <v>49177</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sr. Diogo Jesus</t>
+          <t>Theo Souza</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45087</v>
+        <v>45103</v>
       </c>
       <c r="G9" t="n">
-        <v>11341.34</v>
+        <v>4982.11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>70620</v>
+        <v>30684</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Luna Viana</t>
+          <t>Ana Pereira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45087</v>
+        <v>45089</v>
       </c>
       <c r="G10" t="n">
-        <v>12413</v>
+        <v>3033.91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>25048</v>
+        <v>90012</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Yuri Dias</t>
+          <t>Sofia Costa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45086</v>
+        <v>45093</v>
       </c>
       <c r="G11" t="n">
-        <v>10703.56</v>
+        <v>8512.219999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_48.xlsx
+++ b/data/input/absenteeism_data_48.xlsx
@@ -476,11 +476,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>71852</v>
+        <v>87394</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Isabel Rezende</t>
+          <t>Pedro Novaes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,26 +490,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45079</v>
+        <v>45104</v>
       </c>
       <c r="G2" t="n">
-        <v>11046.1</v>
+        <v>5634.67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>49450</v>
+        <v>17717</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Danilo Lopes</t>
+          <t>Beatriz Moreira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,31 +519,31 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45093</v>
+        <v>45086</v>
       </c>
       <c r="G3" t="n">
-        <v>6371.67</v>
+        <v>6204.58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>57853</v>
+        <v>17117</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ana Vitória Gomes</t>
+          <t>Rebeca Rocha</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,216 +552,216 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45087</v>
+        <v>45097</v>
       </c>
       <c r="G4" t="n">
-        <v>6117.2</v>
+        <v>2784.86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3828</v>
+        <v>39200</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sr. Pedro Henrique Dias</t>
+          <t>Marina Gonçalves</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45085</v>
+        <v>45079</v>
       </c>
       <c r="G5" t="n">
-        <v>4462.14</v>
+        <v>6814</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7838</v>
+        <v>37532</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gabrielly da Costa</t>
+          <t>Noah Pires</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45095</v>
+        <v>45090</v>
       </c>
       <c r="G6" t="n">
-        <v>7219.61</v>
+        <v>12085.82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>83218</v>
+        <v>18737</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dr. Antônio Porto</t>
+          <t>Diego Barbosa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45089</v>
+        <v>45092</v>
       </c>
       <c r="G7" t="n">
-        <v>4130.48</v>
+        <v>6468.52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>96126</v>
+        <v>85427</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sr. Calebe Oliveira</t>
+          <t>Gabriela Monteiro</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45082</v>
+        <v>45085</v>
       </c>
       <c r="G8" t="n">
-        <v>5111.91</v>
+        <v>9566.09</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>49177</v>
+        <v>4347</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Theo Souza</t>
+          <t>Isabella Jesus</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45103</v>
+        <v>45100</v>
       </c>
       <c r="G9" t="n">
-        <v>4982.11</v>
+        <v>4057.58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>30684</v>
+        <v>19511</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ana Pereira</t>
+          <t>Luigi Duarte</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45089</v>
+        <v>45082</v>
       </c>
       <c r="G10" t="n">
-        <v>3033.91</v>
+        <v>4619.27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>90012</v>
+        <v>61261</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sofia Costa</t>
+          <t>Raquel Freitas</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>45093</v>
       </c>
       <c r="G11" t="n">
-        <v>8512.219999999999</v>
+        <v>12415.01</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_48.xlsx
+++ b/data/input/absenteeism_data_48.xlsx
@@ -476,11 +476,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>87394</v>
+        <v>19801</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pedro Novaes</t>
+          <t>Levi Caldeira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,263 +490,263 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45104</v>
+        <v>45086</v>
       </c>
       <c r="G2" t="n">
-        <v>5634.67</v>
+        <v>5656.55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>17717</v>
+        <v>98900</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beatriz Moreira</t>
+          <t>Vitor Gabriel Barros</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45086</v>
+        <v>45097</v>
       </c>
       <c r="G3" t="n">
-        <v>6204.58</v>
+        <v>4297.17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17117</v>
+        <v>87476</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rebeca Rocha</t>
+          <t>Nicole Cavalcanti</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45097</v>
+        <v>45084</v>
       </c>
       <c r="G4" t="n">
-        <v>2784.86</v>
+        <v>11663.94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>39200</v>
+        <v>27141</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marina Gonçalves</t>
+          <t>Pedro Henrique da Cruz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45079</v>
+        <v>45097</v>
       </c>
       <c r="G5" t="n">
-        <v>6814</v>
+        <v>8622.360000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>37532</v>
+        <v>70793</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Noah Pires</t>
+          <t>Kamilly Moraes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45090</v>
+        <v>45091</v>
       </c>
       <c r="G6" t="n">
-        <v>12085.82</v>
+        <v>3332.23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>18737</v>
+        <v>83070</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Diego Barbosa</t>
+          <t>Theo das Neves</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45092</v>
+        <v>45082</v>
       </c>
       <c r="G7" t="n">
-        <v>6468.52</v>
+        <v>3561.19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>85427</v>
+        <v>28158</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gabriela Monteiro</t>
+          <t>Vitor Hugo da Cunha</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45085</v>
+        <v>45087</v>
       </c>
       <c r="G8" t="n">
-        <v>9566.09</v>
+        <v>3806.58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4347</v>
+        <v>42268</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Isabella Jesus</t>
+          <t>Sra. Evelyn Castro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45100</v>
+        <v>45106</v>
       </c>
       <c r="G9" t="n">
-        <v>4057.58</v>
+        <v>4751.36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>19511</v>
+        <v>90956</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Luigi Duarte</t>
+          <t>Dr. Vicente Costa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45082</v>
+        <v>45078</v>
       </c>
       <c r="G10" t="n">
-        <v>4619.27</v>
+        <v>4193.49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>61261</v>
+        <v>98873</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Raquel Freitas</t>
+          <t>Joaquim Rezende</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45093</v>
+        <v>45105</v>
       </c>
       <c r="G11" t="n">
-        <v>12415.01</v>
+        <v>8641.120000000001</v>
       </c>
     </row>
   </sheetData>
